--- a/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Masiva_Periodos.xlsx
+++ b/Payroll/Content/FilesCargaMasivaIncidencias/FormatoDeIncidencias/Layout_Carga_Masiva_Periodos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Mejía Doroteo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Mejía Doroteo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Periodos" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Dias_pagados</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Empresa_id</t>
+  </si>
+  <si>
+    <t>Periodo_especial</t>
   </si>
 </sst>
 </file>
@@ -122,16 +125,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,26 +452,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -481,7 +487,7 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -493,94 +499,97 @@
       <c r="I1" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D2" s="4"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
